--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_259.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_259.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,121 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1183035714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Ab']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(92.073492, 95.022426)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(110.82, 113.8)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.442301, 13.370949)]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.06, 11.04)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:18', '0:00:26.460000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.07728085867620751</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[(93.92, 110.76)]</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:01:42.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:11.060000', '0:00:17.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -606,314 +630,358 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04223722275795564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['C:min6', 'C:min6', 'C:min6']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.26, 24.7)]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['B:hdim7', 'B:hdim7', 'B:hdim7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(45.72, 54.38)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:26.130000', '0:00:29.490000'), ('0:00:00.560000', '0:00:03.850000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:43.560000', '0:00:48.100000'), ('0:02:56.940000', '0:02:59.820000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['A', 'A', 'F#:min'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:07.640000', '0:00:14'), ('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:22.761927', '0:00:31.759659'), ('0:00:39.724104', '0:00:43.706326')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>jaah_42</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2613636363636364</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(21.94, 25.36), (11.82, 16.4)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44), (13.56, 16.28)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:41.770000', '0:00:53.980000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.14, 14.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.59375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.2, 19.32)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(139.76, 142.68)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
+          <t>[['B', 'E/5', 'B', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(15.9, 106.38)]</t>
+          <t>[['A', 'D', 'A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.2, 102.9)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:58.625147', '0:01:10.444104')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:28.450816', '0:00:42.011269')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_0</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[(1.9, 101.9)]</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -922,201 +990,176 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2401960784313725</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj/5', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'G', 'C']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.253, 36.645)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.943242, 66.833401)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G:7/3']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.36998, 7.949297)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.779977, 75.482834)]</t>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.612267, 17.443474)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1366396761133603</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'A/3', 'E/5'], ['G', 'C', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D'], ['D', 'G', 'E:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.404, 17.043), (88.497, 92.37)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (56.381952, 61.374243)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.88, 32.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.56, 6.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
